--- a/Requirement/REQ_SIQ_Response.xlsx
+++ b/Requirement/REQ_SIQ_Response.xlsx
@@ -1,18 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Quality Assurance\Internal-Banking-System\Requirement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9060"/>
   </bookViews>
   <sheets>
-    <sheet name="User" sheetId="1" r:id="rId1"/>
+    <sheet name="SIQ_responses" sheetId="1" r:id="rId1"/>
+    <sheet name="revision report" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
   <si>
     <t>Module Name</t>
   </si>
@@ -272,12 +268,33 @@
   <si>
     <t>Web-based system only</t>
   </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>V0</t>
+  </si>
+  <si>
+    <t>18/3/2024</t>
+  </si>
+  <si>
+    <t>Aya  Mostafa</t>
+  </si>
+  <si>
+    <t>Initial draft</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -325,8 +342,16 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +374,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -406,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -437,29 +468,74 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -467,54 +543,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,16 +771,16 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="41.6328125" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="5" max="5" width="68.77734375" customWidth="1"/>
+    <col min="5" max="5" width="68.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
@@ -769,7 +801,7 @@
       <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="27" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="11"/>
@@ -792,26 +824,26 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="39" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="32"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -821,14 +853,14 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="32"/>
+      <c r="H3" s="28"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
@@ -841,11 +873,11 @@
       <c r="E4" s="5"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="32"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:26" ht="84" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
       <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
@@ -858,11 +890,11 @@
       <c r="E5" s="5"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="32"/>
+      <c r="H5" s="28"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
       <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
@@ -875,11 +907,11 @@
       <c r="E6" s="5"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="32"/>
+      <c r="H6" s="28"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:26" ht="69" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+    <row r="7" spans="1:26" ht="70" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
       <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
@@ -894,11 +926,11 @@
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="32"/>
+      <c r="H7" s="28"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:26" ht="28" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
       <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
@@ -913,24 +945,24 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="32"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="19" t="s">
+    <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="35"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="13"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -950,23 +982,23 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="1:26" ht="28" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="35"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="13"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -986,8 +1018,8 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
       <c r="B11" s="3" t="s">
         <v>32</v>
       </c>
@@ -1000,11 +1032,11 @@
       <c r="E11" s="5"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="32"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1019,11 +1051,11 @@
       <c r="E12" s="5"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="32"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1036,15 +1068,15 @@
       <c r="E13" s="5"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="32"/>
+      <c r="H13" s="28"/>
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="38"/>
       <c r="B14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1055,11 +1087,11 @@
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="32"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
       <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1072,11 +1104,11 @@
       <c r="E15" s="5"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="32"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
@@ -1085,24 +1117,24 @@
       <c r="E16" s="5"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="32"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="19" t="s">
+    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="35"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="13"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1122,8 +1154,8 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
+    <row r="18" spans="1:26" ht="112" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
         <v>46</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1136,13 +1168,13 @@
         <v>16</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="32"/>
+      <c r="F18" s="28"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="32"/>
+      <c r="H18" s="28"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+    <row r="19" spans="1:26" s="6" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1155,12 +1187,12 @@
         <v>10</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="32"/>
+      <c r="F19" s="28"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="32"/>
+      <c r="H19" s="28"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" s="6" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="3" t="s">
         <v>52</v>
@@ -1174,28 +1206,28 @@
       <c r="E20" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="32"/>
+      <c r="F20" s="28"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="32"/>
+      <c r="H20" s="28"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:26" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="31" t="s">
         <v>57</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="15"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
@@ -1217,19 +1249,19 @@
     </row>
     <row r="22" spans="1:26" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="31" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
       <c r="I22" s="15"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1251,19 +1283,19 @@
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="39" t="s">
+      <c r="C23" s="31" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="15"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
@@ -1283,21 +1315,21 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" s="6" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="31" t="s">
         <v>63</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="15"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1319,19 +1351,19 @@
     </row>
     <row r="25" spans="1:26" s="6" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="31" t="s">
         <v>65</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="15"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
@@ -1353,19 +1385,19 @@
     </row>
     <row r="26" spans="1:26" s="6" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="31" t="s">
         <v>67</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="15"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
@@ -1385,21 +1417,21 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" s="6" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="39" t="s">
+      <c r="C27" s="31" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
       <c r="I27" s="15"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
@@ -1419,23 +1451,23 @@
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="1:26" s="6" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+    <row r="28" spans="1:26" s="6" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="42" t="s">
+      <c r="C28" s="33" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
       <c r="I28" s="16"/>
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
@@ -1455,23 +1487,23 @@
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" s="6" customFormat="1" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="33" t="s">
         <v>74</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
       <c r="I29" s="16"/>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -1492,7 +1524,7 @@
       <c r="Z29" s="10"/>
     </row>
     <row r="30" spans="1:26" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="25"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2481,4 +2513,54 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="44" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Requirement/REQ_SIQ_Response.xlsx
+++ b/Requirement/REQ_SIQ_Response.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maya Kind\Desktop\QA\Internal-Banking-System\Requirement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B18B8-FB34-40CA-8C15-3FC25D918CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="9060"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ_responses" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
   <si>
     <t>Module Name</t>
   </si>
@@ -127,16 +133,10 @@
     <t>Note: Uppercases and lowercases are treated identically.</t>
   </si>
   <si>
-    <t>SIQ_user_reg_10</t>
-  </si>
-  <si>
     <t>Confirmation msg in case of complete registration</t>
   </si>
   <si>
     <t>User LogIn</t>
-  </si>
-  <si>
-    <t>SIQ_user_log_01</t>
   </si>
   <si>
     <t xml:space="preserve">Redirect to login page </t>
@@ -289,12 +289,21 @@
   <si>
     <t>Initial draft</t>
   </si>
+  <si>
+    <t>SIQ_user_reg_05</t>
+  </si>
+  <si>
+    <t>rt55</t>
+  </si>
+  <si>
+    <t>\4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -302,44 +311,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,6 +373,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -437,116 +474,128 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,25 +810,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.81640625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="41.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" customWidth="1"/>
     <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="5" max="5" width="68.81640625" customWidth="1"/>
+    <col min="5" max="5" width="68.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -824,17 +873,19 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="36" t="s">
+        <v>12</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="43" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="7"/>
@@ -842,10 +893,10 @@
       <c r="H2" s="28"/>
       <c r="I2" s="12"/>
     </row>
-    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
+    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="42"/>
+      <c r="B3" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>13</v>
@@ -853,16 +904,16 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="40"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="28"/>
       <c r="I3" s="12"/>
     </row>
-    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
+    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="42"/>
+      <c r="B4" s="37" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -876,10 +927,10 @@
       <c r="H4" s="28"/>
       <c r="I4" s="12"/>
     </row>
-    <row r="5" spans="1:26" ht="84" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
+    <row r="5" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
+      <c r="B5" s="37" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
@@ -893,10 +944,10 @@
       <c r="H5" s="28"/>
       <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
+    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="37" t="s">
+        <v>81</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>20</v>
@@ -910,9 +961,9 @@
       <c r="H6" s="28"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="1:26" ht="70" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:26" ht="69" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="37" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -929,9 +980,9 @@
       <c r="H7" s="28"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:26" ht="28" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="37" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -948,9 +999,9 @@
       <c r="H8" s="28"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="42"/>
+      <c r="B9" s="38" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -982,9 +1033,9 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="28" x14ac:dyDescent="0.25">
-      <c r="A10" s="38"/>
-      <c r="B10" s="18" t="s">
+    <row r="10" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="38" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="19" t="s">
@@ -1018,13 +1069,13 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A11" s="38"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="42"/>
+      <c r="B11" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>16</v>
@@ -1035,15 +1086,15 @@
       <c r="H11" s="28"/>
       <c r="I11" s="12"/>
     </row>
-    <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>16</v>
@@ -1054,13 +1105,13 @@
       <c r="H12" s="28"/>
       <c r="I12" s="12"/>
     </row>
-    <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
+    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="42"/>
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>16</v>
@@ -1072,31 +1123,31 @@
       <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="28"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
+    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>16</v>
@@ -1107,8 +1158,8 @@
       <c r="H15" s="28"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
+    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="42"/>
       <c r="B16" s="3"/>
       <c r="C16" s="4"/>
       <c r="D16" s="3" t="s">
@@ -1120,13 +1171,13 @@
       <c r="H16" s="28"/>
       <c r="I16" s="12"/>
     </row>
-    <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
+    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="42"/>
       <c r="B17" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="18" t="s">
         <v>16</v>
@@ -1154,15 +1205,15 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="112" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>16</v>
@@ -1173,15 +1224,15 @@
       <c r="H18" s="28"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+    <row r="19" spans="1:26" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>10</v>
@@ -1192,34 +1243,34 @@
       <c r="H19" s="28"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:26" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40"/>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="7"/>
       <c r="H20" s="28"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" ht="28" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+    <row r="21" spans="1:26" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>57</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>16</v>
@@ -1248,12 +1299,12 @@
       <c r="Z21" s="10"/>
     </row>
     <row r="22" spans="1:26" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>16</v>
@@ -1282,12 +1333,12 @@
       <c r="Z22" s="10"/>
     </row>
     <row r="23" spans="1:26" s="6" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>16</v>
@@ -1315,13 +1366,13 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
     </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
+    <row r="24" spans="1:26" s="6" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40"/>
       <c r="B24" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>16</v>
@@ -1350,12 +1401,12 @@
       <c r="Z24" s="10"/>
     </row>
     <row r="25" spans="1:26" s="6" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>16</v>
@@ -1384,12 +1435,12 @@
       <c r="Z25" s="10"/>
     </row>
     <row r="26" spans="1:26" s="6" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>16</v>
@@ -1417,13 +1468,13 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
     </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:26" s="6" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
       <c r="B27" s="30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>16</v>
@@ -1451,15 +1502,15 @@
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
     </row>
-    <row r="28" spans="1:26" s="6" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:26" s="6" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>70</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>72</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>16</v>
@@ -1487,19 +1538,19 @@
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
     </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="33" t="s">
-        <v>73</v>
+    <row r="29" spans="1:26" s="6" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40"/>
+      <c r="B29" s="48" t="s">
+        <v>71</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -2506,7 +2557,7 @@
     <mergeCell ref="A21:A27"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D29">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D29" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2516,47 +2567,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.453125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
-    <col min="3" max="3" width="25.54296875" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="44" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:4" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="35" t="s">
         <v>76</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>80</v>
-      </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Requirement/REQ_SIQ_Response.xlsx
+++ b/Requirement/REQ_SIQ_Response.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maya Kind\Desktop\QA\Internal-Banking-System\Requirement\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B18B8-FB34-40CA-8C15-3FC25D918CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="SIQ_responses" sheetId="1" r:id="rId1"/>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
   <si>
     <t>Module Name</t>
   </si>
@@ -293,17 +287,109 @@
     <t>SIQ_user_reg_05</t>
   </si>
   <si>
-    <t>rt55</t>
-  </si>
-  <si>
-    <t>\4</t>
+    <t>SIQ_user_log_01</t>
+  </si>
+  <si>
+    <t>SIQ_user_reg_10</t>
+  </si>
+  <si>
+    <t>SIQ_user_log_06</t>
+  </si>
+  <si>
+    <t>SIQ_user_reg_11</t>
+  </si>
+  <si>
+    <t>SIQ_user_reg_12</t>
+  </si>
+  <si>
+    <t>SIQ_user_reg_13</t>
+  </si>
+  <si>
+    <t>Account has - Balance
+                     - Transactions History 
+                     - Account Number (Unique)
+                     - Account Type</t>
+  </si>
+  <si>
+    <t>SIQ_user_account_08</t>
+  </si>
+  <si>
+    <t>SIQ_user_transaction_09</t>
+  </si>
+  <si>
+    <t>SIQ_user_deletion_10</t>
+  </si>
+  <si>
+    <t>Admin can delete the user after 1 month with a balance less than zero
+if not, please specify the period of time to delete the account</t>
+  </si>
+  <si>
+    <t>Users can register using the online registration form only if he has at least one Banking account(حساب بنكى) which is created by the admin for the first time?</t>
+  </si>
+  <si>
+    <t>SIQ_user_reg_14</t>
+  </si>
+  <si>
+    <t>SIQ_AdminFeatures_02</t>
+  </si>
+  <si>
+    <t>SIQ_AdminFeatures_03</t>
+  </si>
+  <si>
+    <t>SIQ_AdminFeatures_04</t>
+  </si>
+  <si>
+    <t>SIQ_AdminFeatures_05</t>
+  </si>
+  <si>
+    <t>SIQ_AdminFeatures_06</t>
+  </si>
+  <si>
+    <t>Admin can edit user account balance ?</t>
+  </si>
+  <si>
+    <t>Admin can edit user account transaction?</t>
+  </si>
+  <si>
+    <t>Admin can view only user account balance ?</t>
+  </si>
+  <si>
+    <t>Admin can edit only the user password?</t>
+  </si>
+  <si>
+    <t>user register using username,password,national id?</t>
+  </si>
+  <si>
+    <t>when user successfully registered will be redirected to the  home page?</t>
+  </si>
+  <si>
+    <t>when user successfully registered will be redirected to the  login page?</t>
+  </si>
+  <si>
+    <t>user logged in first ,then choose which account to use</t>
+  </si>
+  <si>
+    <t>SIQ_AdminFeatures_07</t>
+  </si>
+  <si>
+    <t>Admin can delete user if all bank accounts are deleted?</t>
+  </si>
+  <si>
+    <t>Admin can delete user ?</t>
+  </si>
+  <si>
+    <t>Each Transaction has 
+                     - Trans ID
+                     - Amount
+                     - Type
+                     - Transaction Balance (total account balance after transaction)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -338,11 +424,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -388,7 +469,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,18 +490,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -470,14 +563,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -494,107 +623,184 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,50 +1016,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.77734375" style="26" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" customWidth="1"/>
-    <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="5" max="5" width="68.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.81640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="41.6328125" customWidth="1"/>
+    <col min="3" max="3" width="68.36328125" customWidth="1"/>
+    <col min="5" max="5" width="68.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:26" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -873,728 +1079,1000 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="43" t="s">
+      <c r="E2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="12"/>
-    </row>
-    <row r="3" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
-      <c r="B3" s="37" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="12"/>
-    </row>
-    <row r="4" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
-      <c r="B4" s="37" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A4" s="59"/>
+      <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" spans="1:26" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="37" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:26" ht="84" x14ac:dyDescent="0.25">
+      <c r="A5" s="59"/>
+      <c r="B5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="37" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:26" ht="69" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="37" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:26" ht="70" x14ac:dyDescent="0.25">
+      <c r="A7" s="59"/>
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="37" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:26" ht="28" x14ac:dyDescent="0.25">
+      <c r="A8" s="59"/>
+      <c r="B8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
-      <c r="B9" s="38" t="s">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:26" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A9" s="59"/>
+      <c r="B9" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="38" t="s">
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+    </row>
+    <row r="10" spans="1:26" s="47" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A10" s="59"/>
+      <c r="B10" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="37" t="s">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+    </row>
+    <row r="11" spans="1:26" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+    </row>
+    <row r="12" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A12" s="59"/>
+      <c r="B12" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="61"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="66"/>
+    </row>
+    <row r="13" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A13" s="59"/>
+      <c r="B13" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="66"/>
+    </row>
+    <row r="14" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
+    </row>
+    <row r="15" spans="1:26" s="57" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A15" s="60"/>
+      <c r="B15" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="61"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="66"/>
+    </row>
+    <row r="16" spans="1:26" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="C16" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="E16" s="42"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" spans="1:26" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+    </row>
+    <row r="18" spans="1:26" s="47" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+    </row>
+    <row r="19" spans="1:26" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42"/>
-      <c r="B14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+    </row>
+    <row r="20" spans="1:26" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+    </row>
+    <row r="21" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+    </row>
+    <row r="22" spans="1:26" ht="112" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A23" s="80"/>
+      <c r="B23" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" s="61"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="66"/>
+    </row>
+    <row r="24" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A24" s="80"/>
+      <c r="B24" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="61"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
+    </row>
+    <row r="25" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A25" s="80"/>
+      <c r="B25" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
+    </row>
+    <row r="26" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A26" s="80"/>
+      <c r="B26" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="66"/>
+    </row>
+    <row r="27" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A27" s="80"/>
+      <c r="B27" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="61"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
+    </row>
+    <row r="28" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A28" s="80"/>
+      <c r="B28" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
+    </row>
+    <row r="29" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A29" s="80"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A30" s="79"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:26" s="5" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="42"/>
-      <c r="B15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="3" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="12"/>
+    </row>
+    <row r="32" spans="1:26" s="5" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="32"/>
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="12"/>
+    </row>
+    <row r="33" spans="1:26" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A33" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3" t="s">
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+    </row>
+    <row r="34" spans="1:26" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="68"/>
+      <c r="B34" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
-      <c r="B17" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+    </row>
+    <row r="35" spans="1:26" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="68"/>
+      <c r="B35" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="110.4" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="3" t="s">
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+    </row>
+    <row r="36" spans="1:26" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="68"/>
+      <c r="B36" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" spans="1:26" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="3" t="s">
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+    </row>
+    <row r="37" spans="1:26" s="5" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="68"/>
+      <c r="B37" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+    </row>
+    <row r="38" spans="1:26" s="5" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="68"/>
+      <c r="B38" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+    </row>
+    <row r="39" spans="1:26" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="68"/>
+      <c r="B39" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+    </row>
+    <row r="40" spans="1:26" s="77" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="68"/>
+      <c r="B40" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="72"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="75"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="75"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="75"/>
+      <c r="U40" s="75"/>
+      <c r="V40" s="75"/>
+      <c r="W40" s="76"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="76"/>
+      <c r="Z40" s="76"/>
+    </row>
+    <row r="41" spans="1:26" s="77" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="68"/>
+      <c r="B41" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="72"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="75"/>
+      <c r="U41" s="75"/>
+      <c r="V41" s="75"/>
+      <c r="W41" s="76"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="76"/>
+      <c r="Z41" s="76"/>
+    </row>
+    <row r="42" spans="1:26" s="77" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="69"/>
+      <c r="B42" s="70" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="72"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="74"/>
+      <c r="J42" s="75"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="75"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="75"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="75"/>
+      <c r="U42" s="75"/>
+      <c r="V42" s="75"/>
+      <c r="W42" s="76"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="76"/>
+      <c r="Z42" s="76"/>
+    </row>
+    <row r="43" spans="1:26" s="5" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
+      <c r="Z43" s="9"/>
+    </row>
+    <row r="44" spans="1:26" s="5" customFormat="1" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="32"/>
+      <c r="B44" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="1:26" s="6" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="1:26" s="6" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-    </row>
-    <row r="22" spans="1:26" s="6" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="10"/>
-      <c r="Z22" s="10"/>
-    </row>
-    <row r="23" spans="1:26" s="6" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-    </row>
-    <row r="24" spans="1:26" s="6" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="10"/>
-      <c r="Z24" s="10"/>
-    </row>
-    <row r="25" spans="1:26" s="6" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-    </row>
-    <row r="26" spans="1:26" s="6" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="10"/>
-      <c r="Z26" s="10"/>
-    </row>
-    <row r="27" spans="1:26" s="6" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-    </row>
-    <row r="28" spans="1:26" s="6" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-    </row>
-    <row r="29" spans="1:26" s="6" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="34" t="s">
+      <c r="E44" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-    </row>
-    <row r="30" spans="1:26" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+    </row>
+    <row r="45" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2547,17 +3025,33 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A2:A11"/>
+  <mergeCells count="7">
+    <mergeCell ref="A43:A44"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A27"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A2:A15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D29" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D44">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2567,32 +3061,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" customWidth="1"/>
+    <col min="4" max="4" width="24.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="35" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:4" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="26" t="s">
         <v>76</v>
       </c>
     </row>

--- a/Requirement/REQ_SIQ_Response.xlsx
+++ b/Requirement/REQ_SIQ_Response.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="102">
   <si>
     <t>Module Name</t>
   </si>
@@ -305,84 +305,55 @@
     <t>SIQ_user_reg_13</t>
   </si>
   <si>
-    <t>Account has - Balance
+    <t>SIQ_user_account_08</t>
+  </si>
+  <si>
+    <t>SIQ_user_transaction_09</t>
+  </si>
+  <si>
+    <t>Users can register using the online registration form only if he has at least one Banking account(حساب بنكى) which is created by the admin for the first time?</t>
+  </si>
+  <si>
+    <t>SIQ_AdminFeatures_02</t>
+  </si>
+  <si>
+    <t>SIQ_AdminFeatures_03</t>
+  </si>
+  <si>
+    <t>SIQ_AdminFeatures_04</t>
+  </si>
+  <si>
+    <t>user register using username,password,national id?</t>
+  </si>
+  <si>
+    <t>Admin can delete user if all bank accounts are deleted?</t>
+  </si>
+  <si>
+    <t>when user successfully registered will be redirected to the  home page?if no please write a comment</t>
+  </si>
+  <si>
+    <t>all user accounts are connected so the user will have one user name and password to use for access all his accounts</t>
+  </si>
+  <si>
+    <t>Admin can edit user account balance ,user password and transaction ?please mention if he can view only</t>
+  </si>
+  <si>
+    <t>Account attributes are only:
+                     - Balance
                      - Transactions History 
                      - Account Number (Unique)
                      - Account Type</t>
   </si>
   <si>
-    <t>SIQ_user_account_08</t>
-  </si>
-  <si>
-    <t>SIQ_user_transaction_09</t>
-  </si>
-  <si>
-    <t>SIQ_user_deletion_10</t>
-  </si>
-  <si>
-    <t>Admin can delete the user after 1 month with a balance less than zero
-if not, please specify the period of time to delete the account</t>
-  </si>
-  <si>
-    <t>Users can register using the online registration form only if he has at least one Banking account(حساب بنكى) which is created by the admin for the first time?</t>
-  </si>
-  <si>
-    <t>SIQ_user_reg_14</t>
-  </si>
-  <si>
-    <t>SIQ_AdminFeatures_02</t>
-  </si>
-  <si>
-    <t>SIQ_AdminFeatures_03</t>
-  </si>
-  <si>
-    <t>SIQ_AdminFeatures_04</t>
-  </si>
-  <si>
-    <t>SIQ_AdminFeatures_05</t>
-  </si>
-  <si>
-    <t>SIQ_AdminFeatures_06</t>
-  </si>
-  <si>
-    <t>Admin can edit user account balance ?</t>
-  </si>
-  <si>
-    <t>Admin can edit user account transaction?</t>
-  </si>
-  <si>
-    <t>Admin can view only user account balance ?</t>
-  </si>
-  <si>
-    <t>Admin can edit only the user password?</t>
-  </si>
-  <si>
-    <t>user register using username,password,national id?</t>
-  </si>
-  <si>
-    <t>when user successfully registered will be redirected to the  home page?</t>
-  </si>
-  <si>
-    <t>when user successfully registered will be redirected to the  login page?</t>
-  </si>
-  <si>
-    <t>user logged in first ,then choose which account to use</t>
-  </si>
-  <si>
-    <t>SIQ_AdminFeatures_07</t>
-  </si>
-  <si>
-    <t>Admin can delete user if all bank accounts are deleted?</t>
-  </si>
-  <si>
-    <t>Admin can delete user ?</t>
-  </si>
-  <si>
-    <t>Each Transaction has 
+    <t>Each Transaction attributes are only:
                      - Trans ID
                      - Amount
                      - Type
                      - Transaction Balance (total account balance after transaction)</t>
+  </si>
+  <si>
+    <t>Admin can delete the user after 1 month with a balance less than zero
+if not, please specify the period of time to delete the accoun</t>
   </si>
 </sst>
 </file>
@@ -604,7 +575,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -676,30 +647,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -743,15 +690,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -768,15 +706,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -793,14 +722,53 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1020,10 +988,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1015"/>
+  <dimension ref="A1:Z1009"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1079,7 +1047,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="77" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -1091,7 +1059,7 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="66" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="6"/>
@@ -1100,7 +1068,7 @@
       <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="78"/>
       <c r="B3" s="28" t="s">
         <v>14</v>
       </c>
@@ -1110,14 +1078,14 @@
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="20"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="78"/>
       <c r="B4" s="28" t="s">
         <v>17</v>
       </c>
@@ -1134,7 +1102,7 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="84" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="28" t="s">
         <v>19</v>
       </c>
@@ -1151,7 +1119,7 @@
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="78"/>
       <c r="B6" s="28" t="s">
         <v>81</v>
       </c>
@@ -1168,7 +1136,7 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:26" ht="70" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="78"/>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -1186,8 +1154,8 @@
       <c r="H7" s="20"/>
       <c r="I7" s="11"/>
     </row>
-    <row r="8" spans="1:26" ht="28" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+    <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A8" s="78"/>
       <c r="B8" s="28" t="s">
         <v>24</v>
       </c>
@@ -1205,469 +1173,568 @@
       <c r="H8" s="20"/>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:26" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="39" t="s">
+    <row r="9" spans="1:26" s="39" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A9" s="78"/>
+      <c r="B9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-    </row>
-    <row r="10" spans="1:26" s="47" customFormat="1" ht="28" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="41" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+    </row>
+    <row r="10" spans="1:26" s="39" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A10" s="78"/>
+      <c r="B10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="E10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="46"/>
-      <c r="W10" s="46"/>
-      <c r="X10" s="46"/>
-      <c r="Y10" s="46"/>
-      <c r="Z10" s="46"/>
-    </row>
-    <row r="11" spans="1:26" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="41" t="s">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="38"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="38"/>
+      <c r="X10" s="38"/>
+      <c r="Y10" s="38"/>
+      <c r="Z10" s="38"/>
+    </row>
+    <row r="11" spans="1:26" s="39" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A11" s="78"/>
+      <c r="B11" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
-    </row>
-    <row r="12" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="61" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
+    </row>
+    <row r="12" spans="1:26" s="49" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A12" s="78"/>
+      <c r="B12" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="66"/>
-    </row>
-    <row r="13" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="61" t="s">
+      <c r="C12" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="50"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="55"/>
+    </row>
+    <row r="13" spans="1:26" s="49" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A13" s="78"/>
+      <c r="B13" s="50" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="66"/>
-    </row>
-    <row r="14" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="61" t="s">
+      <c r="C13" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D13" s="50"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="55"/>
+    </row>
+    <row r="14" spans="1:26" s="49" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A14" s="79"/>
+      <c r="B14" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="66"/>
-    </row>
-    <row r="15" spans="1:26" s="57" customFormat="1" ht="42" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="62" t="s">
+      <c r="C14" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+    </row>
+    <row r="15" spans="1:26" s="39" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="34"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:26" s="39" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+    </row>
+    <row r="17" spans="1:26" s="39" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="41"/>
+    </row>
+    <row r="18" spans="1:26" s="39" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="41"/>
+    </row>
+    <row r="19" spans="1:26" s="39" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="B19" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+    </row>
+    <row r="20" spans="1:26" s="49" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A20" s="71"/>
+      <c r="B20" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="48"/>
+      <c r="X20" s="48"/>
+      <c r="Y20" s="48"/>
+      <c r="Z20" s="48"/>
+    </row>
+    <row r="21" spans="1:26" ht="112" x14ac:dyDescent="0.25">
+      <c r="A21" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:26" s="49" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A22" s="75"/>
+      <c r="B22" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:26" s="49" customFormat="1" ht="14" x14ac:dyDescent="0.25">
+      <c r="A23" s="75"/>
+      <c r="B23" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="55"/>
+    </row>
+    <row r="24" spans="1:26" s="49" customFormat="1" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="75"/>
+      <c r="B24" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="66"/>
-    </row>
-    <row r="16" spans="1:26" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="41" t="s">
+      <c r="C24" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="55"/>
+    </row>
+    <row r="25" spans="1:26" ht="14" x14ac:dyDescent="0.25">
+      <c r="A25" s="76"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:26" s="5" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="12"/>
+    </row>
+    <row r="27" spans="1:26" s="5" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="65"/>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" spans="1:26" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+      <c r="A28" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-    </row>
-    <row r="17" spans="1:26" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="41" t="s">
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+    </row>
+    <row r="29" spans="1:26" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
-    </row>
-    <row r="18" spans="1:26" s="47" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="49"/>
-    </row>
-    <row r="19" spans="1:26" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="41" t="s">
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+    </row>
+    <row r="30" spans="1:26" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="49"/>
-    </row>
-    <row r="20" spans="1:26" s="47" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="41" t="s">
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+    </row>
+    <row r="31" spans="1:26" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="46"/>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-    </row>
-    <row r="21" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-    </row>
-    <row r="22" spans="1:26" ht="112" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+    </row>
+    <row r="32" spans="1:26" s="5" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A23" s="80"/>
-      <c r="B23" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="66"/>
-    </row>
-    <row r="24" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A24" s="80"/>
-      <c r="B24" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="61"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-    </row>
-    <row r="25" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A25" s="80"/>
-      <c r="B25" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="66"/>
-    </row>
-    <row r="26" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A26" s="80"/>
-      <c r="B26" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="66"/>
-    </row>
-    <row r="27" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A27" s="80"/>
-      <c r="B27" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="66"/>
-    </row>
-    <row r="28" spans="1:26" s="57" customFormat="1" ht="14" x14ac:dyDescent="0.25">
-      <c r="A28" s="80"/>
-      <c r="B28" s="61" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="66"/>
-    </row>
-    <row r="29" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A29" s="80"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:26" ht="14" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:26" s="5" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:26" s="5" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="32"/>
-      <c r="B32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:26" s="5" customFormat="1" ht="28" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
-        <v>53</v>
-      </c>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+    </row>
+    <row r="33" spans="1:26" s="5" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
       <c r="B33" s="21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>16</v>
@@ -1695,13 +1762,13 @@
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
     </row>
-    <row r="34" spans="1:26" s="5" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="68"/>
+    <row r="34" spans="1:26" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
       <c r="B34" s="21" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>16</v>
@@ -1729,347 +1796,151 @@
       <c r="Y34" s="9"/>
       <c r="Z34" s="9"/>
     </row>
-    <row r="35" spans="1:26" s="5" customFormat="1" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="68"/>
-      <c r="B35" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-    </row>
-    <row r="36" spans="1:26" s="5" customFormat="1" ht="28.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="68"/>
-      <c r="B36" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-    </row>
-    <row r="37" spans="1:26" s="5" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="68"/>
-      <c r="B37" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>63</v>
+    <row r="35" spans="1:26" s="63" customFormat="1" ht="101.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="73"/>
+      <c r="B35" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="61"/>
+      <c r="U35" s="61"/>
+      <c r="V35" s="61"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+    </row>
+    <row r="36" spans="1:26" s="63" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="73"/>
+      <c r="B36" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="61"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="61"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+    </row>
+    <row r="37" spans="1:26" s="5" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>70</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
       <c r="W37" s="9"/>
       <c r="X37" s="9"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
     </row>
-    <row r="38" spans="1:26" s="5" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="68"/>
-      <c r="B38" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>65</v>
+    <row r="38" spans="1:26" s="5" customFormat="1" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="65"/>
+      <c r="B38" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
       <c r="W38" s="9"/>
       <c r="X38" s="9"/>
       <c r="Y38" s="9"/>
       <c r="Z38" s="9"/>
     </row>
-    <row r="39" spans="1:26" s="5" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
-      <c r="B39" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-    </row>
-    <row r="40" spans="1:26" s="77" customFormat="1" ht="62" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
-      <c r="B40" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="74"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="75"/>
-      <c r="T40" s="75"/>
-      <c r="U40" s="75"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="76"/>
-      <c r="X40" s="76"/>
-      <c r="Y40" s="76"/>
-      <c r="Z40" s="76"/>
-    </row>
-    <row r="41" spans="1:26" s="77" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
-      <c r="B41" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="71" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="72"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="75"/>
-      <c r="T41" s="75"/>
-      <c r="U41" s="75"/>
-      <c r="V41" s="75"/>
-      <c r="W41" s="76"/>
-      <c r="X41" s="76"/>
-      <c r="Y41" s="76"/>
-      <c r="Z41" s="76"/>
-    </row>
-    <row r="42" spans="1:26" s="77" customFormat="1" ht="88" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="71" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="74"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="75"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="75"/>
-      <c r="T42" s="75"/>
-      <c r="U42" s="75"/>
-      <c r="V42" s="75"/>
-      <c r="W42" s="76"/>
-      <c r="X42" s="76"/>
-      <c r="Y42" s="76"/>
-      <c r="Z42" s="76"/>
-    </row>
-    <row r="43" spans="1:26" s="5" customFormat="1" ht="31.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="9"/>
-      <c r="Y43" s="9"/>
-      <c r="Z43" s="9"/>
-    </row>
-    <row r="44" spans="1:26" s="5" customFormat="1" ht="25.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-    </row>
-    <row r="45" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-    </row>
+    <row r="39" spans="1:26" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3034,24 +2905,18 @@
     <row r="1007" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1008" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1009" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1010" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1011" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1012" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1014" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1015" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A37:A38"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="A2:A14"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D44">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D38">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
